--- a/Data/Listings/maple.xlsx
+++ b/Data/Listings/maple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levan/Documents/MegaValuationer/Data/Listings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BF4069-2847-2345-9C0B-28644A06811F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB33315B-6D81-1147-8D37-E2B956E5F0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="786">
   <si>
     <t>Reference Number</t>
   </si>
@@ -886,45 +886,6 @@
 Please contact Yash Raj Lakhwani for more information at +971503802444
 DNL Properties
 Retail G07, Bay Square Building 8, Business Bay - Dubai</t>
-  </si>
-  <si>
-    <t>DP-PSR-S-0034</t>
-  </si>
-  <si>
-    <t>6925793756</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14259434.html</t>
-  </si>
-  <si>
-    <t>2999</t>
-  </si>
-  <si>
-    <t>5BR + Maid | Exclusive Single Row | Best Price</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>Deependra Dharmender Kumar Guliani</t>
-  </si>
-  <si>
-    <t>Propstock Realty LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listed exclusively with Propstock, this 5-bedroom townhouse is in the Dubai Hills Estate community developed by EMAAR. 
-Best Price in the market for 5 Bedrooms. 
-Property Details: 
-5bedroom + Maid
-5 Bathroom
-Built Up Area 2700 sq ft 
-Plot Size 2999 sq ft
-Single row
-Viewings can be arranged with prior appointment.
-Pictures are for illustrative purposes only and do not depict the actual property. 
-The ground floor has a guest bedroom and separate dining and living area. It has a well-designed bedroom and is positioned on a rare corner property making it a unique find in the market. The master suite includes a walk-in closet, a magnificent en-suite bathroom, and private terraces beautiful neighborhoods. 
-Maple 1 Townhouses has a good location and good transport accessibility. Large highways like Al Khail Road and Umm Suqeim Street can be quickly accessed from the complex, making it easy for residents of the townhouses to reach other areas of the emirate. for example,,, the central community of Downtown Dubai and the sea beaches can be reached within a 20-miute drive. 
-</t>
   </si>
   <si>
     <t>DP-S-51133</t>
@@ -1820,40 +1781,6 @@
 The new Dubai Hills shopping Mall and Dubai Hills Golf Club are only a short drive away. The Developer is EMAAR which offers state-of-the-art facilities and amenities.</t>
   </si>
   <si>
-    <t>L-172244</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14595355.html</t>
-  </si>
-  <si>
-    <t>2928</t>
-  </si>
-  <si>
-    <t>Type 2E | Vacant soon | Maple 3</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>Megan Acomb</t>
-  </si>
-  <si>
-    <t>Strada are excited to introduce you to this Four Bedroom, Four Bathroom Maple Townhouse in Dubai Hills Estate.
-Property and Community Features:
-- Maple at Dubai Hills Estate
-- Type 2E (Corner / End)
-- Built up area 2,462 Sq Ft
-- Plot 2928.75 Sq Ft
-- 4 Bedrooms + Maids Room
-- 4 Bathrooms
-- Open Kitchen, Dining and Living Area
-- Balcony
-- 2 Parking Spaces
-- Community Pool and Gym
-This Townhouse is situated in Maple, Dubai Hills Estate. Maple is a popular community for families, it is centrally located within the city and is a 15 minute drive to DIFC and the Marina. The new Dubai Hills shopping mall and Dubai Hills Golf club is only a short drive away. The developer is Emaar who offer state of the art facilities and amenities.
-For further information or to book a viewing contact Megan Acomb</t>
-  </si>
-  <si>
     <t>L-172282</t>
   </si>
   <si>
@@ -2328,56 +2255,6 @@
 Set amidst a verdant landscape, Maple townhouses in Dubai Hills Estate have been planned along with a network of green corridors that connect the districts and provide shaded pathways, cycling and jogging tracks, exercise courses, as well as community playgrounds, offering the perfect environment for family life. The lush landscaping also promotes healthier communities and social interaction, while offering easy access to all of the neighbourhood’s amenities.</t>
   </si>
   <si>
-    <t>MAPPLE-DUBAIHILLS</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14465840.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rare Corner 5BR Villa | Large Plot | Walk to Pool </t>
-  </si>
-  <si>
-    <t>2025-06-10</t>
-  </si>
-  <si>
-    <t>Rajni Dube</t>
-  </si>
-  <si>
-    <t>Gold Coast Real Estate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elegant 5BR Corner Villa | Large Plot | Prime Maple 2, Dubai Hills | Walk to Park &amp;amp; Pool
-Goldcoast Real Estate proudly presents this stunning 5-bedroom + maid’s room corner villa in Maple 2, Dubai Hills Estate – offering privacy, space, and an unmatched family lifestyle in one of Dubai’s most sought-after master communities.
-Villa Details:
-Type: 5 Bedroom Villa + Maid’s Room
-Built-up Area: Approx. 2,957 sq. ft.
-Plot: Spacious Corner Plot
-Living Area: Bright and Open Plan
-Kitchen: Modern with Ample Storage
-Bathrooms: 4 Well-Finished
-Parking: Covered Garage for 2 Cars
-Garden: Private Landscaped Outdoor Space
-Community Features:
-Walkable to community pool, kids&amp;#39; park, and green walkways
-Lush landscaped areas, cycling tracks, and jogging trails
-Dubai Hills Golf Club and Dubai Hills Park nearby
-Family-friendly, gated, and master-planned neighborhood
-Great rental potential for investors
-Nearby Landmarks &amp;amp; Accessibility:
-Dubai Hills Mall – 5 minutes
-Kings College Hospital – 7 minutes
-GEMS International School – 8 minutes
-Dubai Hills Golf Club – 6 minutes
-Downtown Dubai / Burj Khalifa – 15 minutes
-Dubai International Airport (DXB) – 20 minutes
-Easy access to Al Khail Road (E44) and Sheikh Mohammed Bin Zayed Road (E311)
-Corner units are rare and in high demand for their space and privacy. Combined with the prestige of Dubai Hills Estate and upcoming developments like Dubai Hills Business Park, this home offers outstanding potential for capital appreciation and lifestyle convenience.
-For more information and details or to arrange a viewing please call me or send me a message via WhatsApp - Nitya +971-55-8392809
-Goldcoast Real Estate
-RERA No. 55944 | ORN 12027
-</t>
-  </si>
-  <si>
     <t>MCC-S-46375</t>
   </si>
   <si>
@@ -2388,6 +2265,9 @@
   </si>
   <si>
     <t>Genuine | Exclusive | Upgraded + Extended | Vacant</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
   </si>
   <si>
     <t>Arsen Gasparyan</t>
@@ -2457,42 +2337,6 @@
 Supermarkets and Dining Options
 Maple at Dubai Hills Estate, developed by EMAAR, is a family-friendly, expat-favored neighborhood in the heart of Dubai. With lush green spaces, top-tier amenities, and quick access to major highways, the area offers an exceptional balance of tranquility and connectivity. Dubai Hills Mall and the world-class Dubai Hills Golf Club are just minutes away.
 Pictures for illustration purposes only.</t>
-  </si>
-  <si>
-    <t>MS-27187</t>
-  </si>
-  <si>
-    <t>6991636177</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14690064.html</t>
-  </si>
-  <si>
-    <t>Vacant on Transfer | Near Amenities | Back to Back</t>
-  </si>
-  <si>
-    <t>Ruqia Ishaq</t>
-  </si>
-  <si>
-    <t>Metropolitan Premium Properties</t>
-  </si>
-  <si>
-    <t>Metropolitan Premium Properties is proud to offer this elegant 4-bedroom townhouse in Maple 3, Dubai Hills Estate.  
-Property Details and Features:
-Vacant on Transfer
-Community
-3 Bedrooms
-No. of Parking: 2
-Built up Area: 2281 square feet
-Plot Area: 2094 square feet
-Unfurnished
-Lush green corridors, cycle and jogging paths
-Swimming pools, sports courts &amp;amp;amp; children’s club
-Gated community with security &amp;amp;amp; gated parking
-Near top schools, hospital, and Dubai Hills Mall
-Active community vibe—great for families and fitness lovers
-Family-friendly environment: gated community with playgrounds, cycles, parks to keep little ones happy. Dubai Hills Mall (~7 min), Mall of the Emirates &amp;amp;amp; Dubai Mall within easy reach.Nearby schools (e.g., GEMS Wellington, GEMS American) plus King’s College Hospital London for healthcare
-The Metropolitan Group is the leading real estate agency in the UAE. We speak 44+ languages and offer our local and international clients exceptional service, expert advice, and comprehensive property sales, purchases, and rental support.</t>
   </si>
   <si>
     <t>MT-053</t>
@@ -2725,7 +2569,7 @@
     <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14252107.html</t>
   </si>
   <si>
-    <t>Single Row | Vacant  | Near The Green Belt</t>
+    <t>Near The Green Belt | Single Row | Vacant</t>
   </si>
   <si>
     <t>Dina Zatir</t>
@@ -2761,7 +2605,7 @@
     <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14526340.html</t>
   </si>
   <si>
-    <t>Best View | Spacious | Upgraded | Single Row</t>
+    <t>Single Row | Spacious | Upgraded Garden</t>
   </si>
   <si>
     <t>2025-06-18</t>
@@ -2827,6 +2671,9 @@
   </si>
   <si>
     <t>Single Row | Best Location | Vacant Soon</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
   </si>
   <si>
     <t>Muaz Ali</t>
@@ -3446,50 +3293,6 @@
 Permit No: 6991622147</t>
   </si>
   <si>
-    <t>SALE12</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14578737.html</t>
-  </si>
-  <si>
-    <t>3090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Park Facing | Vacant Now | Corner Unit | Viewable </t>
-  </si>
-  <si>
-    <t>2025-06-24</t>
-  </si>
-  <si>
-    <t>OMAR ALANANI</t>
-  </si>
-  <si>
-    <t>ANANI HOUSES FOR REAL ESTATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omar &amp;amp; Anani Houses proudly present this beautifully designed 5-bedroom villa, ideally located in the heart of the highly sought-after Maple 2 community at Dubai Hills Estate. 
-Property Details:
-•	5 Bedrooms
-•	4 Bathrooms
-•	Maid’s Room
-•	Built-Up Area: 2,700 sq. ft
-•	Plot Size: 3,090 sq. ft
-•	Corner Unit
-•	Back-to-Back
-•	Vacant
-•	2 Covered Parking Spaces
-Community Highlights:
-•      Gated community with 24/7 security
-•       Landscaped parks and green corridors
-•       Shared swimming pool and fully equipped gym
-•       Children’s play areas and walking/jogging trails
-•       Nearby Dubai Hills Mall, schools, hospitals, and golf course
-This villa offers a perfect balance of privacy and community living, surrounded by lush greenery and premium amenities. Ideal for those seeking a peaceful retreat just minutes from the vibrant city center.
-Situated on a generous plot, this home features a large private garden—perfect for entertaining, relaxing, or enjoying quality time with family. The ground floor welcomes you with a bright and airy open-plan living and dining area, enhanced by floor-to-ceiling windows space.
-For more information or to arrange a viewing please contact Omar.
-</t>
-  </si>
-  <si>
     <t>SD-S-4BV-82</t>
   </si>
   <si>
@@ -3652,7 +3455,7 @@
     <t>2025-06-25</t>
   </si>
   <si>
-    <t>Shams Taie</t>
+    <t>Mohammad Meshmesh</t>
   </si>
   <si>
     <t>Harbor Real Estate</t>
@@ -3709,51 +3512,22 @@
 Please call Dee today for more information, to arrange a viewing or to make an offer.</t>
   </si>
   <si>
-    <t>TH742457-3</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14705529.html</t>
-  </si>
-  <si>
-    <t>New to Market | Upgraded | Vacant On Transfer</t>
+    <t>TH744455-1</t>
+  </si>
+  <si>
+    <t>6928565541</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14705668.html</t>
+  </si>
+  <si>
+    <t>3700</t>
+  </si>
+  <si>
+    <t>Exclusive | Vacant On Transfer | Huge Plot</t>
   </si>
   <si>
     <t>Jonathan Martin Coates</t>
-  </si>
-  <si>
-    <t>Jon at Betterhomes are proud to bring to market this 4 bedroom + maids Townhouse in Maple 2, Dubai Hills Estate.
-The property features an open living area, a contemporary kitchen and four well appointed bedrooms along with a big maids room.
-Property details are as follows:
-- Type 2E / corner unit
-- 4 Bedroom
-- 4 Bathroom
-- Corner unit
-- True corner
--Extended
-- Backing the beautifully landscaped Green belt
-- Built up area size 2462 sq.ft
-- Plot size 3263.51 sq.ft
-- Immaculate throughout 
-- Spacious living and dining area
-- Close to swimming pool &amp;amp; Gym
-- Vacant on transfer 
-One of very few corner units which back the Green belt. Call Jon to arrange a viewing today.
-*Generic images used whilst we wait for photography*</t>
-  </si>
-  <si>
-    <t>TH744455-1</t>
-  </si>
-  <si>
-    <t>6928565541</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14705668.html</t>
-  </si>
-  <si>
-    <t>3700</t>
-  </si>
-  <si>
-    <t>Exclusive | Vacant On Transfer | Huge Plot</t>
   </si>
   <si>
     <t>Jon at Betterhomes is proud to present this highly sought-after Type 2E townhouse, ideally located in Maple 2, Dubai Hills Estate. Set within one of the most family-friendly communities in Dubai, this well-maintained 4-bedroom + maid’s property offers the perfect balance of space, privacy, and accessibility.
@@ -4017,7 +3791,7 @@
     <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14145707.html</t>
   </si>
   <si>
-    <t>Greenbelt | Landscaped | Vacant Soon | 3M</t>
+    <t>Exclusive | Greenbelt | Landscaped | 3M</t>
   </si>
   <si>
     <t>Aamir Qayyum</t>
@@ -4206,6 +3980,170 @@
 Golf Enthusiast&amp;#39;s Paradise:
 The Dubai Hills Estate Golf Club provides a picturesque backdrop for golf enthusiasts to refine their skills.</t>
   </si>
+  <si>
+    <t>BAA-S-4981</t>
+  </si>
+  <si>
+    <t>6928565801</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14484682.html</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>5BD | TYPE 3E | ON THE GREEN BELT | CLUSTER OF TWO</t>
+  </si>
+  <si>
+    <t>Abdullah Ahmed</t>
+  </si>
+  <si>
+    <t>Bridges and Allies Real Estate Brokers</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Bridges &amp;amp; Allies Real Estate&lt;/strong&gt; is delighted to present this exquisite &lt;strong&gt;5-bedroom semi-detached townhouse&lt;/strong&gt; situated in Maple 2, Dubai Hills Estate. This rare unit is backing a wide patch of green belt with direct view to the main park of Maple 2 and two minute walk to the amenities. &lt;/p&gt;&lt;br&gt;&lt;p&gt;Dubai Hills is strategically positioned on Al Khail Road and southeast of Downtown Dubai. The destination has an endless supply of nature trails and green spaces so you can live life in harmony with nature and world-class residential, hospitality and retail districts.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Key Features:&lt;br/&gt;- 5 Bedrooms Type 3E&lt;br/&gt;- BUA: 2,735 SQ.FT&lt;br/&gt;- Plot: 3,011 SQ.FT&lt;br/&gt;- Private garden&lt;br/&gt;- Back door opening to massive green space and main park&lt;br/&gt;- 2 balconies&lt;br/&gt;- 1 ensuite baths and 2 shared bath&lt;br/&gt;- Maid&amp;#39;s room with en-suite bath&lt;br/&gt;- Built-in Wardrobes&lt;br/&gt;- Open kitchen with island kitchen counter&lt;br/&gt;- Less than 2 min walk to pool&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;ASKING PRICE: AED 6,500,000/-&lt;/strong&gt;&lt;/p&gt;&lt;br&gt;&lt;p&gt;For viewings and more info, please contact our area specialist &lt;strong&gt;Abdullah Ahmed.&lt;/strong&gt;&lt;/p&gt;&lt;br&gt;&lt;p&gt;ORN 17070&lt;br/&gt;DLD Permit #119253&lt;/p&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>DP-PSR-S-0007</t>
+  </si>
+  <si>
+    <t>6925793756</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14714374.html</t>
+  </si>
+  <si>
+    <t>2999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Price | 5BR + Maid | Exclusive Single Row </t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>Deependra Dharmender Kumar Guliani</t>
+  </si>
+  <si>
+    <t>Propstock Realty LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listed exclusively with Propstock, this 5-bedroom townhouse is in the Dubai Hills Estate community developed by EMAAR. 
+Best Price in the market for 5 Bedrooms. 
+Property Details: 
+5bedroom + Maid
+5 Bathroom
+Built Up Area 2700 sq ft 
+Plot Size 2999 sq ft
+Single row
+Viewings can be arranged with prior appointment.
+Pictures are for illustrative purposes only and do not depict the actual property. 
+The ground floor has a guest bedroom and separate dining and living area. It has a well-designed bedroom and is positioned on a rare corner property making it a unique find in the market. The master suite includes a walk-in closet, a magnificent en-suite bathroom, and private terraces beautiful Neighborhoods. 
+Maple 1 Townhouses has a good location and good transport accessibility. Large highways like Al Khail Road and Umm Suqeim Street can be quickly accessed from the complex, making it easy for residents of the townhouses to reach other areas of the emirate. for example, the central community of Downtown Dubai and the sea beaches can be reached within a 20-miute drive. 
+</t>
+  </si>
+  <si>
+    <t>L-172637</t>
+  </si>
+  <si>
+    <t>6925794167</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14710412.html</t>
+  </si>
+  <si>
+    <t>Vacant Now | Single Row | Type 3M</t>
+  </si>
+  <si>
+    <t>Strada are delighted to bring to the market this well located 4 bedroom villa in the popular community of Maple, Dubai Hills.
+- 4 Bedrooms
+- 4 Bathrooms
+- Maids Room
+- Vacant Now
+- Type 3M
+- Single Row
+- Private Location
+- Book Viewing Today.
+The property comprises an open plan living/kitchen area, ground floor bedroom &amp;amp; bathroom, maid’s room. Upstairs there is the master bedroom with en-suite and dressing room, with 2 more bedrooms with a sharing jack and jill bathroom.
+Maple is popular for families, the area includes dubai hills mall, 18 hole championship golf course, dubai hills park, schools, hospitals and many more.
+Maple is centrally located in the city, within 2 minutes to Al Khail Road, easy access to Downtown and Marina within 15 minutes.
+Please contact us today for more information about this property or to arrange a viewing with the agent.</t>
+  </si>
+  <si>
+    <t>MSP-17101</t>
+  </si>
+  <si>
+    <t>6991636177</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14710054.html</t>
+  </si>
+  <si>
+    <t>Vacant on Transfer | Near Amenities | Back to Back</t>
+  </si>
+  <si>
+    <t>Ruqia Ishaq</t>
+  </si>
+  <si>
+    <t>Metropolitan Premium Properties</t>
+  </si>
+  <si>
+    <t>Metropolitan Premium Properties is proud to offer this elegant 3-bedroom townhouse in Maple 3, Dubai Hills Estate.  
+Property Details and Features:
+Vacant on Transfer
+Community
+3 Bedrooms
+No. of Parking: 2
+Built up Area: 2281 square feet
+Plot Area: 2094 square feet
+Unfurnished
+Lush green corridors, cycle and jogging paths
+Swimming pools, sports courts &amp;amp;amp; children’s club
+Gated community with security &amp;amp;amp; gated parking
+Near top schools, hospital, and Dubai Hills Mall
+Active community vibe—great for families and fitness lovers
+Family-friendly environment: gated community with playgrounds, cycles, parks to keep little ones happy. Dubai Hills Mall (~7 min), Mall of the Emirates &amp;amp;amp; Dubai Mall within easy reach.Nearby schools (e.g., GEMS Wellington, GEMS American) plus King’s College Hospital London for healthcare
+The Metropolitan Group is the leading real estate agency in the UAE. We speak 44+ languages and offer our local and international clients exceptional service, expert advice, and comprehensive property sales, purchases, and rental support.</t>
+  </si>
+  <si>
+    <t>PF-VS-141060</t>
+  </si>
+  <si>
+    <t>6991662529</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14710864.html</t>
+  </si>
+  <si>
+    <t>Fully Upgraded | Extended | Amazing Location</t>
+  </si>
+  <si>
+    <t>Ali Hmoud</t>
+  </si>
+  <si>
+    <t>fam Properties - Branch 5</t>
+  </si>
+  <si>
+    <t>Introducing Maple 3 Villas: Luxury Living Redefined
+Nestled within the prestigious community of [Location], Maple 3 Villas exemplify the epitome of refined living. This exclusive enclave of exquisite villas redefines luxury, combining timeless architectural design, meticulous craftsmanship, and modern amenities to create an unparalleled residential experience.
+Key Features:
+- Best Maple of all 3 
+- ⁠Extended and upgraded with special Emaar approvals 
+- ⁠2E
+- ⁠Mid unit
+- ⁠Maids room 
+- ⁠Back to back 
+- ⁠2,300 BUA
+Architectural Elegance: The villas at Maple 3 boast a harmonious blend of classic and contemporary architecture. 
+With attention to detail evident in every corner, the exterior facades exude sophistication while the interior spaces offer an inviting ambience.
+Premium Materials: The use of premium materials and finishes is a hallmark of Maple 3 Villas. From the finest marble and hardwood flooring to top-of-the-line fixtures, 
+every detail has been carefully curated to exude luxury and durability.
+Secure Community: Maple 3 Villas offer more than just luxury; they offer peace of mind. The community is equipped with advanced security systems, gated entry, 
+and round-the-clock surveillance to ensure the safety and privacy of its residents.
+Prime Location: Situated in the heart of [Location], residents of Maple 3 Villas benefit from easy access to [Nearby Landmarks, Schools, Shopping Centers]. The central location ensures that every convenience is just moments away.
+Maple 3 Villas redefine luxury living through a harmonious blend of elegance, comfort, and convenience. Immerse yourself in a lifestyle that elevates your expectations and redefines the meaning of home. Experience the pinnacle of opulence at Maple 3 Villas.</t>
+  </si>
 </sst>
 </file>
 
@@ -4239,7 +4177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4256,6 +4194,11 @@
         <fgColor rgb="FFFFE4B5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4270,13 +4213,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4580,7 +4525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U108"/>
+  <dimension ref="A1:U107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
@@ -4588,9 +4533,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="21" width="18" customWidth="1"/>
+    <col min="1" max="21" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -4705,7 +4648,7 @@
         <v>33</v>
       </c>
       <c r="Q2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s">
         <v>34</v>
@@ -4767,7 +4710,7 @@
         <v>47</v>
       </c>
       <c r="Q3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R3" t="s">
         <v>48</v>
@@ -4829,7 +4772,7 @@
         <v>57</v>
       </c>
       <c r="Q4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R4" t="s">
         <v>58</v>
@@ -4891,7 +4834,7 @@
         <v>67</v>
       </c>
       <c r="Q5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
         <v>68</v>
@@ -4953,7 +4896,7 @@
         <v>77</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
         <v>78</v>
@@ -5015,7 +4958,7 @@
         <v>85</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
         <v>86</v>
@@ -5077,7 +5020,7 @@
         <v>94</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R8" t="s">
         <v>95</v>
@@ -5139,7 +5082,7 @@
         <v>102</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R9" t="s">
         <v>103</v>
@@ -5201,7 +5144,7 @@
         <v>111</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10" t="s">
         <v>112</v>
@@ -5263,7 +5206,7 @@
         <v>119</v>
       </c>
       <c r="Q11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R11" t="s">
         <v>120</v>
@@ -5325,7 +5268,7 @@
         <v>119</v>
       </c>
       <c r="Q12">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R12" t="s">
         <v>126</v>
@@ -5387,7 +5330,7 @@
         <v>102</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R13" t="s">
         <v>133</v>
@@ -5449,7 +5392,7 @@
         <v>139</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R14" t="s">
         <v>140</v>
@@ -5484,7 +5427,7 @@
         <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H15">
         <v>6500000</v>
@@ -5511,7 +5454,7 @@
         <v>111</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R15" t="s">
         <v>148</v>
@@ -5573,7 +5516,7 @@
         <v>156</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R16" t="s">
         <v>157</v>
@@ -5635,7 +5578,7 @@
         <v>165</v>
       </c>
       <c r="Q17">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s">
         <v>157</v>
@@ -5697,7 +5640,7 @@
         <v>171</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R18" t="s">
         <v>157</v>
@@ -5759,7 +5702,7 @@
         <v>178</v>
       </c>
       <c r="Q19">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R19" t="s">
         <v>157</v>
@@ -5821,7 +5764,7 @@
         <v>85</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R20" t="s">
         <v>186</v>
@@ -5853,25 +5796,25 @@
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
       </c>
       <c r="H21">
-        <v>5950000</v>
+        <v>5750000</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>28</v>
       </c>
       <c r="K21" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>192</v>
@@ -5883,7 +5826,7 @@
         <v>194</v>
       </c>
       <c r="Q21">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="R21" t="s">
         <v>195</v>
@@ -5915,25 +5858,25 @@
         <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
       </c>
       <c r="H22">
-        <v>5750000</v>
+        <v>5500000</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>28</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>201</v>
@@ -5942,33 +5885,33 @@
         <v>202</v>
       </c>
       <c r="P22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22">
+        <v>21</v>
+      </c>
+      <c r="R22" t="s">
         <v>203</v>
       </c>
-      <c r="Q22">
-        <v>28</v>
-      </c>
-      <c r="R22" t="s">
-        <v>204</v>
-      </c>
       <c r="S22" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="T22" t="s">
         <v>36</v>
       </c>
       <c r="U22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -5980,10 +5923,10 @@
         <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H23">
-        <v>5500000</v>
+        <v>5200000</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -5998,22 +5941,22 @@
         <v>44</v>
       </c>
       <c r="N23" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O23" t="s">
+        <v>209</v>
+      </c>
+      <c r="P23" t="s">
         <v>210</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s">
         <v>211</v>
       </c>
-      <c r="P23" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q23">
-        <v>20</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>212</v>
-      </c>
-      <c r="S23" t="s">
-        <v>205</v>
       </c>
       <c r="T23" t="s">
         <v>36</v>
@@ -6039,60 +5982,60 @@
         <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>5200000</v>
+        <v>5750000</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
         <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" t="s">
+        <v>217</v>
+      </c>
+      <c r="P24" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q24">
         <v>44</v>
       </c>
-      <c r="N24" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="O24" t="s">
-        <v>218</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>219</v>
       </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>220</v>
-      </c>
-      <c r="S24" t="s">
-        <v>221</v>
       </c>
       <c r="T24" t="s">
         <v>36</v>
       </c>
       <c r="U24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" t="s">
         <v>223</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -6107,7 +6050,7 @@
         <v>42</v>
       </c>
       <c r="H25">
-        <v>5750000</v>
+        <v>6000000</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -6122,7 +6065,7 @@
         <v>30</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
         <v>226</v>
@@ -6131,30 +6074,30 @@
         <v>227</v>
       </c>
       <c r="Q25">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="R25" t="s">
         <v>228</v>
       </c>
       <c r="S25" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="T25" t="s">
         <v>36</v>
       </c>
       <c r="U25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" t="s">
         <v>231</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -6163,13 +6106,13 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
       </c>
       <c r="H26">
-        <v>6000000</v>
+        <v>5300000</v>
       </c>
       <c r="I26">
         <v>4</v>
@@ -6178,45 +6121,45 @@
         <v>28</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q26">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="R26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S26" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="T26" t="s">
         <v>36</v>
       </c>
       <c r="U26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -6225,60 +6168,60 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
       </c>
       <c r="H27">
-        <v>5300000</v>
+        <v>6995000</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" t="s">
         <v>28</v>
       </c>
       <c r="K27" t="s">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="M27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O27" t="s">
         <v>244</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>245</v>
       </c>
-      <c r="P27" t="s">
-        <v>246</v>
-      </c>
       <c r="Q27">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="R27" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="S27" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="T27" t="s">
         <v>36</v>
       </c>
       <c r="U27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -6287,60 +6230,60 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
       </c>
       <c r="H28">
-        <v>6995000</v>
+        <v>6150000</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>28</v>
       </c>
       <c r="K28" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N28" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="O28" t="s">
+        <v>251</v>
+      </c>
+      <c r="P28" t="s">
         <v>252</v>
       </c>
-      <c r="O28" t="s">
-        <v>253</v>
-      </c>
-      <c r="P28" t="s">
-        <v>254</v>
-      </c>
       <c r="Q28">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="R28" t="s">
         <v>228</v>
       </c>
       <c r="S28" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="T28" t="s">
         <v>36</v>
       </c>
       <c r="U28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B29" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -6349,60 +6292,60 @@
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
       </c>
       <c r="H29">
-        <v>6150000</v>
+        <v>6650000</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="N29" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s">
+        <v>258</v>
+      </c>
+      <c r="P29" t="s">
         <v>259</v>
       </c>
-      <c r="O29" t="s">
-        <v>260</v>
-      </c>
-      <c r="P29" t="s">
-        <v>261</v>
-      </c>
       <c r="Q29">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="R29" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="S29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="T29" t="s">
         <v>36</v>
       </c>
       <c r="U29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B30" t="s">
-        <v>264</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -6417,37 +6360,37 @@
         <v>42</v>
       </c>
       <c r="H30">
-        <v>6650000</v>
+        <v>4880000</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>28</v>
       </c>
       <c r="K30" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N30" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="O30" t="s">
+        <v>265</v>
+      </c>
+      <c r="P30" t="s">
         <v>266</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q30">
+        <v>32</v>
+      </c>
+      <c r="R30" t="s">
         <v>267</v>
       </c>
-      <c r="P30" t="s">
+      <c r="S30" t="s">
         <v>268</v>
-      </c>
-      <c r="Q30">
-        <v>53</v>
-      </c>
-      <c r="R30" t="s">
-        <v>237</v>
-      </c>
-      <c r="S30" t="s">
-        <v>229</v>
       </c>
       <c r="T30" t="s">
         <v>36</v>
@@ -6473,60 +6416,60 @@
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
       </c>
       <c r="H31">
-        <v>4880000</v>
+        <v>5200000</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
       </c>
       <c r="K31" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>55</v>
+        <v>234</v>
       </c>
       <c r="N31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" t="s">
         <v>273</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>274</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31">
+        <v>19</v>
+      </c>
+      <c r="R31" t="s">
         <v>275</v>
       </c>
-      <c r="Q31">
-        <v>31</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>276</v>
-      </c>
-      <c r="S31" t="s">
-        <v>277</v>
       </c>
       <c r="T31" t="s">
         <v>36</v>
       </c>
       <c r="U31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" t="s">
         <v>279</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -6541,54 +6484,54 @@
         <v>42</v>
       </c>
       <c r="H32">
-        <v>5200000</v>
+        <v>6200000</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
         <v>28</v>
       </c>
       <c r="K32" t="s">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>45</v>
       </c>
       <c r="O32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P32" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R32" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="S32" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="T32" t="s">
         <v>36</v>
       </c>
       <c r="U32" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -6603,7 +6546,7 @@
         <v>42</v>
       </c>
       <c r="H33">
-        <v>6200000</v>
+        <v>6900000</v>
       </c>
       <c r="I33">
         <v>5</v>
@@ -6618,39 +6561,39 @@
         <v>75</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="O33" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P33" t="s">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="R33" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="S33" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="T33" t="s">
         <v>36</v>
       </c>
       <c r="U33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" t="s">
         <v>292</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
@@ -6659,60 +6602,60 @@
         <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
       </c>
       <c r="H34">
-        <v>6900000</v>
+        <v>6200000</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
         <v>28</v>
       </c>
       <c r="K34" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N34" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="O34" t="s">
         <v>295</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>296</v>
       </c>
-      <c r="P34" t="s">
-        <v>165</v>
-      </c>
       <c r="Q34">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="R34" t="s">
         <v>297</v>
       </c>
       <c r="S34" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="T34" t="s">
         <v>36</v>
       </c>
       <c r="U34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" t="s">
         <v>300</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="D35" t="s">
         <v>24</v>
@@ -6721,13 +6664,13 @@
         <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
       </c>
       <c r="H35">
-        <v>6200000</v>
+        <v>6000000</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -6739,42 +6682,42 @@
         <v>29</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N35" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="O35" t="s">
         <v>303</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q35">
+        <v>11</v>
+      </c>
+      <c r="R35" t="s">
         <v>304</v>
       </c>
-      <c r="P35" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q35">
-        <v>48</v>
-      </c>
-      <c r="R35" t="s">
-        <v>306</v>
-      </c>
       <c r="S35" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="T35" t="s">
         <v>36</v>
       </c>
       <c r="U35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s">
-        <v>309</v>
+        <v>231</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -6789,7 +6732,7 @@
         <v>42</v>
       </c>
       <c r="H36">
-        <v>6000000</v>
+        <v>5500000</v>
       </c>
       <c r="I36">
         <v>4</v>
@@ -6798,45 +6741,45 @@
         <v>28</v>
       </c>
       <c r="K36" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="O36" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P36" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R36" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="S36" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="T36" t="s">
         <v>36</v>
       </c>
       <c r="U36" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
@@ -6845,13 +6788,13 @@
         <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
       </c>
       <c r="H37">
-        <v>5500000</v>
+        <v>6000000</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -6860,45 +6803,45 @@
         <v>28</v>
       </c>
       <c r="K37" t="s">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="O37" t="s">
+        <v>316</v>
+      </c>
+      <c r="P37" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q37">
+        <v>44</v>
+      </c>
+      <c r="R37" t="s">
         <v>317</v>
       </c>
-      <c r="P37" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q37">
-        <v>7</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>318</v>
-      </c>
-      <c r="S37" t="s">
-        <v>319</v>
       </c>
       <c r="T37" t="s">
         <v>36</v>
       </c>
       <c r="U37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B38" t="s">
         <v>321</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -6907,13 +6850,13 @@
         <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
       </c>
       <c r="H38">
-        <v>6000000</v>
+        <v>5500000</v>
       </c>
       <c r="I38">
         <v>4</v>
@@ -6925,42 +6868,42 @@
         <v>29</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N38" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="O38" t="s">
         <v>324</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>325</v>
       </c>
-      <c r="P38" t="s">
-        <v>227</v>
-      </c>
       <c r="Q38">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="R38" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="S38" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="T38" t="s">
         <v>36</v>
       </c>
       <c r="U38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B39" t="s">
+        <v>328</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="B39" t="s">
-        <v>330</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -6975,7 +6918,7 @@
         <v>42</v>
       </c>
       <c r="H39">
-        <v>5500000</v>
+        <v>6200000</v>
       </c>
       <c r="I39">
         <v>4</v>
@@ -6990,39 +6933,39 @@
         <v>64</v>
       </c>
       <c r="N39" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="O39" t="s">
+        <v>331</v>
+      </c>
+      <c r="P39" t="s">
         <v>332</v>
       </c>
-      <c r="O39" t="s">
-        <v>333</v>
-      </c>
-      <c r="P39" t="s">
-        <v>334</v>
-      </c>
       <c r="Q39">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="R39" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="S39" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="T39" t="s">
         <v>36</v>
       </c>
       <c r="U39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B40" t="s">
+        <v>335</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B40" t="s">
-        <v>337</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -7031,60 +6974,60 @@
         <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
       </c>
       <c r="H40">
-        <v>6200000</v>
+        <v>5000000</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
         <v>28</v>
       </c>
       <c r="K40" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="N40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" t="s">
+        <v>337</v>
+      </c>
+      <c r="P40" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q40">
+        <v>28</v>
+      </c>
+      <c r="R40" t="s">
         <v>339</v>
       </c>
-      <c r="O40" t="s">
-        <v>340</v>
-      </c>
-      <c r="P40" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q40">
-        <v>44</v>
-      </c>
-      <c r="R40" t="s">
-        <v>326</v>
-      </c>
       <c r="S40" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="T40" t="s">
         <v>36</v>
       </c>
       <c r="U40" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s">
-        <v>344</v>
+        <v>231</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
@@ -7093,60 +7036,60 @@
         <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H41">
-        <v>5000000</v>
+        <v>5500000</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41" t="s">
         <v>28</v>
       </c>
       <c r="K41" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>45</v>
       </c>
       <c r="O41" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P41" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q41">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R41" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="S41" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="T41" t="s">
         <v>36</v>
       </c>
       <c r="U41" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -7155,57 +7098,57 @@
         <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H42">
-        <v>5500000</v>
+        <v>6500000</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J42" t="s">
         <v>28</v>
       </c>
       <c r="K42" t="s">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="O42" t="s">
+        <v>349</v>
+      </c>
+      <c r="P42" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q42">
+        <v>9</v>
+      </c>
+      <c r="R42" t="s">
+        <v>351</v>
+      </c>
+      <c r="S42" t="s">
         <v>352</v>
-      </c>
-      <c r="P42" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q42">
-        <v>24</v>
-      </c>
-      <c r="R42" t="s">
-        <v>326</v>
-      </c>
-      <c r="S42" t="s">
-        <v>327</v>
       </c>
       <c r="T42" t="s">
         <v>36</v>
       </c>
       <c r="U42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B43" t="s">
         <v>355</v>
-      </c>
-      <c r="B43" t="s">
-        <v>199</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>356</v>
@@ -7217,13 +7160,13 @@
         <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G43" t="s">
         <v>42</v>
       </c>
       <c r="H43">
-        <v>5750000</v>
+        <v>5800000</v>
       </c>
       <c r="I43">
         <v>4</v>
@@ -7235,42 +7178,42 @@
         <v>29</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O43" t="s">
         <v>357</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>358</v>
-      </c>
-      <c r="P43" t="s">
-        <v>359</v>
       </c>
       <c r="Q43">
         <v>14</v>
       </c>
       <c r="R43" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="S43" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="T43" t="s">
         <v>36</v>
       </c>
       <c r="U43" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" t="s">
+        <v>361</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
@@ -7285,7 +7228,7 @@
         <v>42</v>
       </c>
       <c r="H44">
-        <v>6500000</v>
+        <v>6700000</v>
       </c>
       <c r="I44">
         <v>5</v>
@@ -7300,39 +7243,39 @@
         <v>75</v>
       </c>
       <c r="N44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O44" t="s">
+        <v>363</v>
+      </c>
+      <c r="P44" t="s">
         <v>364</v>
       </c>
-      <c r="O44" t="s">
-        <v>365</v>
-      </c>
-      <c r="P44" t="s">
-        <v>366</v>
-      </c>
       <c r="Q44">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R44" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="S44" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="T44" t="s">
         <v>36</v>
       </c>
       <c r="U44" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -7344,10 +7287,10 @@
         <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H45">
-        <v>5800000</v>
+        <v>6200000</v>
       </c>
       <c r="I45">
         <v>4</v>
@@ -7362,39 +7305,39 @@
         <v>64</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="O45" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P45" t="s">
-        <v>374</v>
+        <v>210</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="R45" t="s">
-        <v>348</v>
+        <v>211</v>
       </c>
       <c r="S45" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="T45" t="s">
         <v>36</v>
       </c>
       <c r="U45" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
@@ -7403,60 +7346,60 @@
         <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H46">
-        <v>6700000</v>
+        <v>6200000</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
         <v>28</v>
       </c>
       <c r="K46" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="O46" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="P46" t="s">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>2</v>
       </c>
       <c r="R46" t="s">
-        <v>348</v>
+        <v>211</v>
       </c>
       <c r="S46" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="T46" t="s">
         <v>36</v>
       </c>
       <c r="U46" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B47" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
@@ -7465,60 +7408,60 @@
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
         <v>27</v>
       </c>
       <c r="H47">
-        <v>6200000</v>
+        <v>7500000</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J47" t="s">
         <v>28</v>
       </c>
       <c r="K47" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="O47" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="S47" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T47" t="s">
         <v>36</v>
       </c>
       <c r="U47" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s">
-        <v>301</v>
+        <v>381</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -7533,54 +7476,54 @@
         <v>27</v>
       </c>
       <c r="H48">
-        <v>6200000</v>
+        <v>5200000</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
       </c>
       <c r="K48" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="O48" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R48" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="S48" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T48" t="s">
         <v>36</v>
       </c>
       <c r="U48" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s">
-        <v>391</v>
+        <v>284</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
@@ -7592,10 +7535,10 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H49">
-        <v>7500000</v>
+        <v>6900000</v>
       </c>
       <c r="I49">
         <v>5</v>
@@ -7610,39 +7553,39 @@
         <v>75</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>393</v>
+        <v>286</v>
       </c>
       <c r="O49" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>389</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="R49" t="s">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="S49" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T49" t="s">
         <v>36</v>
       </c>
       <c r="U49" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
@@ -7651,13 +7594,13 @@
         <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G50" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>5200000</v>
+        <v>4950000</v>
       </c>
       <c r="I50">
         <v>3</v>
@@ -7669,42 +7612,42 @@
         <v>43</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>399</v>
+        <v>184</v>
       </c>
       <c r="O50" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>396</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="R50" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="S50" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T50" t="s">
         <v>36</v>
       </c>
       <c r="U50" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s">
-        <v>293</v>
+        <v>399</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -7713,60 +7656,60 @@
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H51">
-        <v>6900000</v>
+        <v>6000000</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
         <v>28</v>
       </c>
       <c r="K51" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>295</v>
+        <v>401</v>
       </c>
       <c r="O51" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P51" t="s">
-        <v>405</v>
+        <v>210</v>
       </c>
       <c r="Q51">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>406</v>
+        <v>211</v>
       </c>
       <c r="S51" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T51" t="s">
         <v>36</v>
       </c>
       <c r="U51" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B52" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
@@ -7778,57 +7721,57 @@
         <v>54</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H52">
-        <v>4950000</v>
+        <v>6400000</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
       </c>
       <c r="K52" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>184</v>
+        <v>407</v>
       </c>
       <c r="O52" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P52" t="s">
-        <v>412</v>
+        <v>338</v>
       </c>
       <c r="Q52">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="R52" t="s">
-        <v>220</v>
+        <v>351</v>
       </c>
       <c r="S52" t="s">
-        <v>221</v>
+        <v>352</v>
       </c>
       <c r="T52" t="s">
         <v>36</v>
       </c>
       <c r="U52" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s">
-        <v>415</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -7837,13 +7780,13 @@
         <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G53" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H53">
-        <v>6300000</v>
+        <v>6000000</v>
       </c>
       <c r="I53">
         <v>4</v>
@@ -7855,42 +7798,42 @@
         <v>29</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="O53" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>338</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="R53" t="s">
-        <v>220</v>
+        <v>351</v>
       </c>
       <c r="S53" t="s">
-        <v>221</v>
+        <v>352</v>
       </c>
       <c r="T53" t="s">
         <v>36</v>
       </c>
       <c r="U53" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B54" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -7905,7 +7848,7 @@
         <v>27</v>
       </c>
       <c r="H54">
-        <v>6400000</v>
+        <v>6175000</v>
       </c>
       <c r="I54">
         <v>4</v>
@@ -7920,39 +7863,39 @@
         <v>64</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O54" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="P54" t="s">
-        <v>347</v>
+        <v>210</v>
       </c>
       <c r="Q54">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="R54" t="s">
-        <v>367</v>
+        <v>211</v>
       </c>
       <c r="S54" t="s">
-        <v>368</v>
+        <v>212</v>
       </c>
       <c r="T54" t="s">
         <v>36</v>
       </c>
       <c r="U54" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>422</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -7961,7 +7904,7 @@
         <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
         <v>42</v>
@@ -7982,39 +7925,39 @@
         <v>64</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="O55" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="P55" t="s">
-        <v>347</v>
+        <v>425</v>
       </c>
       <c r="Q55">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="R55" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
       <c r="S55" t="s">
-        <v>368</v>
+        <v>427</v>
       </c>
       <c r="T55" t="s">
         <v>36</v>
       </c>
       <c r="U55" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B56" t="s">
+        <v>430</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="B56" t="s">
-        <v>432</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
@@ -8023,13 +7966,13 @@
         <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>6175000</v>
+        <v>6100000</v>
       </c>
       <c r="I56">
         <v>4</v>
@@ -8044,22 +7987,22 @@
         <v>64</v>
       </c>
       <c r="N56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O56" t="s">
+        <v>432</v>
+      </c>
+      <c r="P56" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q56">
+        <v>52</v>
+      </c>
+      <c r="R56" t="s">
         <v>434</v>
       </c>
-      <c r="O56" t="s">
+      <c r="S56" t="s">
         <v>435</v>
-      </c>
-      <c r="P56" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-      <c r="R56" t="s">
-        <v>220</v>
-      </c>
-      <c r="S56" t="s">
-        <v>221</v>
       </c>
       <c r="T56" t="s">
         <v>36</v>
@@ -8091,19 +8034,19 @@
         <v>42</v>
       </c>
       <c r="H57">
-        <v>6000000</v>
+        <v>6999000</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J57" t="s">
         <v>28</v>
       </c>
       <c r="K57" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>45</v>
@@ -8115,7 +8058,7 @@
         <v>441</v>
       </c>
       <c r="Q57">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R57" t="s">
         <v>442</v>
@@ -8150,34 +8093,34 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H58">
-        <v>6100000</v>
+        <v>5100000</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>28</v>
       </c>
       <c r="K58" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>45</v>
+        <v>448</v>
       </c>
       <c r="O58" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P58" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="Q58">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="R58" t="s">
         <v>450</v>
@@ -8197,7 +8140,7 @@
         <v>453</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>454</v>
@@ -8212,22 +8155,22 @@
         <v>54</v>
       </c>
       <c r="G59" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H59">
-        <v>6700000</v>
+        <v>5500000</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J59" t="s">
         <v>28</v>
       </c>
       <c r="K59" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>45</v>
@@ -8239,7 +8182,7 @@
         <v>456</v>
       </c>
       <c r="Q59">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="R59" t="s">
         <v>457</v>
@@ -8271,25 +8214,25 @@
         <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G60" t="s">
         <v>42</v>
       </c>
       <c r="H60">
-        <v>6999000</v>
+        <v>5500000</v>
       </c>
       <c r="I60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
         <v>28</v>
       </c>
       <c r="K60" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N60" s="4" t="s">
         <v>45</v>
@@ -8298,10 +8241,10 @@
         <v>463</v>
       </c>
       <c r="P60" t="s">
-        <v>359</v>
+        <v>266</v>
       </c>
       <c r="Q60">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="R60" t="s">
         <v>464</v>
@@ -8333,25 +8276,25 @@
         <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G61" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H61">
-        <v>5100000</v>
+        <v>6000000</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J61" t="s">
         <v>28</v>
       </c>
       <c r="K61" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="N61" s="4" t="s">
         <v>470</v>
@@ -8360,10 +8303,10 @@
         <v>471</v>
       </c>
       <c r="P61" t="s">
-        <v>441</v>
+        <v>210</v>
       </c>
       <c r="Q61">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R61" t="s">
         <v>472</v>
@@ -8395,37 +8338,37 @@
         <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G62" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>4900000</v>
+        <v>5250000</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
         <v>28</v>
       </c>
       <c r="K62" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="O62" t="s">
         <v>478</v>
       </c>
       <c r="P62" t="s">
-        <v>111</v>
+        <v>425</v>
       </c>
       <c r="Q62">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R62" t="s">
         <v>479</v>
@@ -8445,7 +8388,7 @@
         <v>482</v>
       </c>
       <c r="B63" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>483</v>
@@ -8457,13 +8400,13 @@
         <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
       </c>
       <c r="H63">
-        <v>5500000</v>
+        <v>5800000</v>
       </c>
       <c r="I63">
         <v>4</v>
@@ -8472,10 +8415,10 @@
         <v>28</v>
       </c>
       <c r="K63" t="s">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>45</v>
@@ -8484,33 +8427,33 @@
         <v>484</v>
       </c>
       <c r="P63" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="Q63">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="R63" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="S63" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="T63" t="s">
         <v>36</v>
       </c>
       <c r="U63" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B64" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
@@ -8519,60 +8462,60 @@
         <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G64" t="s">
         <v>42</v>
       </c>
       <c r="H64">
-        <v>5500000</v>
+        <v>5350000</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J64" t="s">
         <v>28</v>
       </c>
       <c r="K64" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>55</v>
+        <v>489</v>
       </c>
       <c r="N64" s="4" t="s">
         <v>45</v>
       </c>
       <c r="O64" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="P64" t="s">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="Q64">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="R64" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="S64" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="T64" t="s">
         <v>36</v>
       </c>
       <c r="U64" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B65" t="s">
-        <v>497</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -8587,7 +8530,7 @@
         <v>27</v>
       </c>
       <c r="H65">
-        <v>6000000</v>
+        <v>5800000</v>
       </c>
       <c r="I65">
         <v>4</v>
@@ -8602,39 +8545,39 @@
         <v>64</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>499</v>
+        <v>64</v>
       </c>
       <c r="O65" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>325</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="R65" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="S65" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="T65" t="s">
         <v>36</v>
       </c>
       <c r="U65" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B66" t="s">
-        <v>505</v>
+        <v>381</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
@@ -8643,60 +8586,60 @@
         <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G66" t="s">
         <v>42</v>
       </c>
       <c r="H66">
-        <v>5250000</v>
+        <v>5200000</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
         <v>28</v>
       </c>
       <c r="K66" t="s">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="N66" s="4" t="s">
         <v>45</v>
       </c>
       <c r="O66" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="P66" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
       <c r="Q66">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="R66" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="S66" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="T66" t="s">
         <v>36</v>
       </c>
       <c r="U66" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
@@ -8705,13 +8648,13 @@
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H67">
-        <v>5800000</v>
+        <v>6800000</v>
       </c>
       <c r="I67">
         <v>4</v>
@@ -8723,42 +8666,42 @@
         <v>29</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>45</v>
+        <v>508</v>
       </c>
       <c r="O67" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P67" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="Q67">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R67" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="S67" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="T67" t="s">
         <v>36</v>
       </c>
       <c r="U67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B68" t="s">
-        <v>516</v>
+        <v>284</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
@@ -8767,60 +8710,60 @@
         <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
         <v>42</v>
       </c>
       <c r="H68">
-        <v>5350000</v>
+        <v>6900000</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J68" t="s">
         <v>28</v>
       </c>
       <c r="K68" t="s">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>518</v>
+        <v>75</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>45</v>
       </c>
       <c r="O68" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P68" t="s">
-        <v>111</v>
+        <v>516</v>
       </c>
       <c r="Q68">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="R68" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="S68" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="T68" t="s">
         <v>36</v>
       </c>
       <c r="U68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B69" t="s">
+        <v>300</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="B69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -8832,10 +8775,10 @@
         <v>54</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H69">
-        <v>5800000</v>
+        <v>6100000</v>
       </c>
       <c r="I69">
         <v>4</v>
@@ -8850,39 +8793,39 @@
         <v>64</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="O69" t="s">
+        <v>522</v>
+      </c>
+      <c r="P69" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q69">
+        <v>10</v>
+      </c>
+      <c r="R69" t="s">
         <v>523</v>
       </c>
-      <c r="P69" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q69">
-        <v>58</v>
-      </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>524</v>
-      </c>
-      <c r="S69" t="s">
-        <v>525</v>
       </c>
       <c r="T69" t="s">
         <v>36</v>
       </c>
       <c r="U69" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B70" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="B70" t="s">
-        <v>397</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
@@ -8897,54 +8840,54 @@
         <v>42</v>
       </c>
       <c r="H70">
-        <v>5200000</v>
+        <v>5750000</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J70" t="s">
         <v>28</v>
       </c>
       <c r="K70" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="N70" s="4" t="s">
         <v>45</v>
       </c>
       <c r="O70" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P70" t="s">
-        <v>530</v>
+        <v>119</v>
       </c>
       <c r="Q70">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="R70" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="S70" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="T70" t="s">
         <v>36</v>
       </c>
       <c r="U70" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B71" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
@@ -8953,13 +8896,13 @@
         <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G71" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H71">
-        <v>6800000</v>
+        <v>6000000</v>
       </c>
       <c r="I71">
         <v>4</v>
@@ -8971,42 +8914,42 @@
         <v>29</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="O71" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="P71" t="s">
-        <v>441</v>
+        <v>535</v>
       </c>
       <c r="Q71">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="R71" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="S71" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="T71" t="s">
         <v>36</v>
       </c>
       <c r="U71" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B72" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -9021,7 +8964,7 @@
         <v>42</v>
       </c>
       <c r="H72">
-        <v>6900000</v>
+        <v>7499999</v>
       </c>
       <c r="I72">
         <v>5</v>
@@ -9036,39 +8979,39 @@
         <v>75</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>45</v>
+        <v>377</v>
       </c>
       <c r="O72" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>535</v>
       </c>
       <c r="Q72">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="R72" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="S72" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="T72" t="s">
         <v>36</v>
       </c>
       <c r="U72" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B73" t="s">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -9077,13 +9020,13 @@
         <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G73" t="s">
         <v>42</v>
       </c>
       <c r="H73">
-        <v>6100000</v>
+        <v>5800000</v>
       </c>
       <c r="I73">
         <v>4</v>
@@ -9095,42 +9038,42 @@
         <v>29</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>45</v>
+        <v>543</v>
       </c>
       <c r="O73" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="P73" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="Q73">
         <v>9</v>
       </c>
       <c r="R73" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="S73" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="T73" t="s">
         <v>36</v>
       </c>
       <c r="U73" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>547</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
@@ -9139,13 +9082,13 @@
         <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G74" t="s">
         <v>42</v>
       </c>
       <c r="H74">
-        <v>5750000</v>
+        <v>5800000</v>
       </c>
       <c r="I74">
         <v>4</v>
@@ -9154,45 +9097,45 @@
         <v>28</v>
       </c>
       <c r="K74" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>45</v>
+        <v>549</v>
       </c>
       <c r="O74" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="P74" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="Q74">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="R74" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="S74" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="T74" t="s">
         <v>36</v>
       </c>
       <c r="U74" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B75" t="s">
-        <v>559</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -9201,13 +9144,13 @@
         <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G75" t="s">
         <v>42</v>
       </c>
       <c r="H75">
-        <v>6000000</v>
+        <v>5800000</v>
       </c>
       <c r="I75">
         <v>4</v>
@@ -9219,42 +9162,42 @@
         <v>29</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O75" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="P75" t="s">
-        <v>563</v>
+        <v>350</v>
       </c>
       <c r="Q75">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="R75" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="S75" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="T75" t="s">
         <v>36</v>
       </c>
       <c r="U75" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B76" t="s">
-        <v>391</v>
+        <v>206</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
@@ -9269,54 +9212,54 @@
         <v>42</v>
       </c>
       <c r="H76">
-        <v>7499999</v>
+        <v>5200000</v>
       </c>
       <c r="I76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
         <v>28</v>
       </c>
       <c r="K76" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>393</v>
+        <v>560</v>
       </c>
       <c r="O76" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="P76" t="s">
-        <v>563</v>
+        <v>210</v>
       </c>
       <c r="Q76">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="R76" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="S76" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="T76" t="s">
         <v>36</v>
       </c>
       <c r="U76" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>564</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
@@ -9331,7 +9274,7 @@
         <v>42</v>
       </c>
       <c r="H77">
-        <v>5800000</v>
+        <v>5950000</v>
       </c>
       <c r="I77">
         <v>4</v>
@@ -9346,39 +9289,39 @@
         <v>30</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="O77" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="P77" t="s">
-        <v>366</v>
+        <v>210</v>
       </c>
       <c r="Q77">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R77" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="S77" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="T77" t="s">
         <v>36</v>
       </c>
       <c r="U77" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B78" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -9387,13 +9330,13 @@
         <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
         <v>42</v>
       </c>
       <c r="H78">
-        <v>5800000</v>
+        <v>6100000</v>
       </c>
       <c r="I78">
         <v>4</v>
@@ -9402,45 +9345,45 @@
         <v>28</v>
       </c>
       <c r="K78" t="s">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="O78" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="P78" t="s">
-        <v>139</v>
+        <v>441</v>
       </c>
       <c r="Q78">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="R78" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="S78" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="T78" t="s">
         <v>36</v>
       </c>
       <c r="U78" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>577</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D79" t="s">
         <v>24</v>
@@ -9455,54 +9398,54 @@
         <v>42</v>
       </c>
       <c r="H79">
-        <v>5800000</v>
+        <v>6199000</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J79" t="s">
         <v>28</v>
       </c>
       <c r="K79" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="N79" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O79" t="s">
+        <v>579</v>
+      </c>
+      <c r="P79" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q79">
+        <v>129</v>
+      </c>
+      <c r="R79" t="s">
+        <v>581</v>
+      </c>
+      <c r="S79" t="s">
         <v>582</v>
-      </c>
-      <c r="O79" t="s">
-        <v>583</v>
-      </c>
-      <c r="P79" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q79">
-        <v>8</v>
-      </c>
-      <c r="R79" t="s">
-        <v>584</v>
-      </c>
-      <c r="S79" t="s">
-        <v>552</v>
       </c>
       <c r="T79" t="s">
         <v>36</v>
       </c>
       <c r="U79" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B80" t="s">
+        <v>585</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="B80" t="s">
-        <v>215</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="D80" t="s">
         <v>24</v>
@@ -9511,60 +9454,60 @@
         <v>25</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G80" t="s">
         <v>42</v>
       </c>
       <c r="H80">
-        <v>5200000</v>
+        <v>5500000</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
         <v>28</v>
       </c>
       <c r="K80" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="N80" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O80" t="s">
+        <v>587</v>
+      </c>
+      <c r="P80" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q80">
+        <v>10</v>
+      </c>
+      <c r="R80" t="s">
         <v>588</v>
       </c>
-      <c r="O80" t="s">
-        <v>589</v>
-      </c>
-      <c r="P80" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q80">
-        <v>1</v>
-      </c>
-      <c r="R80" t="s">
-        <v>551</v>
-      </c>
       <c r="S80" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="T80" t="s">
         <v>36</v>
       </c>
       <c r="U80" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B81" t="s">
         <v>591</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
@@ -9579,37 +9522,37 @@
         <v>42</v>
       </c>
       <c r="H81">
-        <v>5950000</v>
+        <v>6100000</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
         <v>28</v>
       </c>
       <c r="K81" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="N81" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O81" t="s">
+        <v>593</v>
+      </c>
+      <c r="P81" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q81">
+        <v>44</v>
+      </c>
+      <c r="R81" t="s">
         <v>594</v>
       </c>
-      <c r="O81" t="s">
+      <c r="S81" t="s">
         <v>595</v>
-      </c>
-      <c r="P81" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q81">
-        <v>1</v>
-      </c>
-      <c r="R81" t="s">
-        <v>551</v>
-      </c>
-      <c r="S81" t="s">
-        <v>552</v>
       </c>
       <c r="T81" t="s">
         <v>36</v>
@@ -9641,7 +9584,7 @@
         <v>42</v>
       </c>
       <c r="H82">
-        <v>6100000</v>
+        <v>6500000</v>
       </c>
       <c r="I82">
         <v>4</v>
@@ -9650,28 +9593,28 @@
         <v>28</v>
       </c>
       <c r="K82" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="N82" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O82" t="s">
         <v>600</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q82">
+        <v>49</v>
+      </c>
+      <c r="R82" t="s">
         <v>601</v>
       </c>
-      <c r="P82" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q82">
-        <v>14</v>
-      </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>602</v>
-      </c>
-      <c r="S82" t="s">
-        <v>552</v>
       </c>
       <c r="T82" t="s">
         <v>36</v>
@@ -9685,10 +9628,10 @@
         <v>604</v>
       </c>
       <c r="B83" t="s">
+        <v>292</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="D83" t="s">
         <v>24</v>
@@ -9697,60 +9640,60 @@
         <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G83" t="s">
         <v>42</v>
       </c>
       <c r="H83">
-        <v>6199000</v>
+        <v>6200000</v>
       </c>
       <c r="I83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
         <v>28</v>
       </c>
       <c r="K83" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="O83" t="s">
+        <v>606</v>
+      </c>
+      <c r="P83" t="s">
         <v>607</v>
       </c>
-      <c r="P83" t="s">
-        <v>608</v>
-      </c>
       <c r="Q83">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="R83" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="S83" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="T83" t="s">
         <v>36</v>
       </c>
       <c r="U83" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B84" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
@@ -9759,13 +9702,13 @@
         <v>25</v>
       </c>
       <c r="F84" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G84" t="s">
         <v>42</v>
       </c>
       <c r="H84">
-        <v>5500000</v>
+        <v>5799000</v>
       </c>
       <c r="I84">
         <v>4</v>
@@ -9777,42 +9720,42 @@
         <v>29</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>45</v>
+        <v>612</v>
       </c>
       <c r="O84" t="s">
+        <v>613</v>
+      </c>
+      <c r="P84" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q84">
+        <v>8</v>
+      </c>
+      <c r="R84" t="s">
+        <v>614</v>
+      </c>
+      <c r="S84" t="s">
         <v>615</v>
-      </c>
-      <c r="P84" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q84">
-        <v>9</v>
-      </c>
-      <c r="R84" t="s">
-        <v>616</v>
-      </c>
-      <c r="S84" t="s">
-        <v>610</v>
       </c>
       <c r="T84" t="s">
         <v>36</v>
       </c>
       <c r="U84" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B85" t="s">
         <v>618</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="D85" t="s">
         <v>24</v>
@@ -9821,60 +9764,60 @@
         <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G85" t="s">
         <v>42</v>
       </c>
       <c r="H85">
-        <v>6100000</v>
+        <v>5500000</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J85" t="s">
         <v>28</v>
       </c>
       <c r="K85" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>45</v>
       </c>
       <c r="O85" t="s">
+        <v>620</v>
+      </c>
+      <c r="P85" t="s">
         <v>621</v>
       </c>
-      <c r="P85" t="s">
-        <v>227</v>
-      </c>
       <c r="Q85">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="R85" t="s">
-        <v>622</v>
+        <v>510</v>
       </c>
       <c r="S85" t="s">
-        <v>623</v>
+        <v>511</v>
       </c>
       <c r="T85" t="s">
         <v>36</v>
       </c>
       <c r="U85" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B86" t="s">
+        <v>624</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="B86" t="s">
-        <v>626</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="D86" t="s">
         <v>24</v>
@@ -9889,7 +9832,7 @@
         <v>42</v>
       </c>
       <c r="H86">
-        <v>6500000</v>
+        <v>5300000</v>
       </c>
       <c r="I86">
         <v>4</v>
@@ -9898,45 +9841,45 @@
         <v>28</v>
       </c>
       <c r="K86" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>45</v>
       </c>
       <c r="O86" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="P86" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="Q86">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="R86" t="s">
-        <v>629</v>
+        <v>510</v>
       </c>
       <c r="S86" t="s">
-        <v>630</v>
+        <v>511</v>
       </c>
       <c r="T86" t="s">
         <v>36</v>
       </c>
       <c r="U86" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B87" t="s">
-        <v>301</v>
+        <v>629</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
@@ -9945,13 +9888,13 @@
         <v>25</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
         <v>42</v>
       </c>
       <c r="H87">
-        <v>6200000</v>
+        <v>6800000</v>
       </c>
       <c r="I87">
         <v>4</v>
@@ -9963,42 +9906,42 @@
         <v>29</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>303</v>
+        <v>631</v>
       </c>
       <c r="O87" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="P87" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="Q87">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="R87" t="s">
-        <v>629</v>
+        <v>510</v>
       </c>
       <c r="S87" t="s">
-        <v>630</v>
+        <v>511</v>
       </c>
       <c r="T87" t="s">
         <v>36</v>
       </c>
       <c r="U87" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B88" t="s">
-        <v>605</v>
+        <v>321</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
@@ -10013,54 +9956,54 @@
         <v>42</v>
       </c>
       <c r="H88">
-        <v>5900000</v>
+        <v>5600000</v>
       </c>
       <c r="I88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
         <v>28</v>
       </c>
       <c r="K88" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="N88" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O88" t="s">
+        <v>637</v>
+      </c>
+      <c r="P88" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q88">
+        <v>53</v>
+      </c>
+      <c r="R88" t="s">
         <v>639</v>
       </c>
-      <c r="O88" t="s">
-        <v>640</v>
-      </c>
-      <c r="P88" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q88">
-        <v>16</v>
-      </c>
-      <c r="R88" t="s">
-        <v>642</v>
-      </c>
       <c r="S88" t="s">
-        <v>643</v>
+        <v>511</v>
       </c>
       <c r="T88" t="s">
         <v>36</v>
       </c>
       <c r="U88" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B89" t="s">
-        <v>646</v>
+        <v>90</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -10069,13 +10012,13 @@
         <v>25</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G89" t="s">
         <v>42</v>
       </c>
       <c r="H89">
-        <v>5799000</v>
+        <v>5900000</v>
       </c>
       <c r="I89">
         <v>4</v>
@@ -10087,42 +10030,42 @@
         <v>29</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>648</v>
+        <v>45</v>
       </c>
       <c r="O89" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="P89" t="s">
-        <v>139</v>
+        <v>644</v>
       </c>
       <c r="Q89">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="R89" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="S89" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="T89" t="s">
         <v>36</v>
       </c>
       <c r="U89" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B90" t="s">
-        <v>654</v>
+        <v>393</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -10137,54 +10080,54 @@
         <v>42</v>
       </c>
       <c r="H90">
-        <v>5500000</v>
+        <v>4950000</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
         <v>28</v>
       </c>
       <c r="K90" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>45</v>
+        <v>650</v>
       </c>
       <c r="O90" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="P90" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="Q90">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="R90" t="s">
-        <v>539</v>
+        <v>652</v>
       </c>
       <c r="S90" t="s">
-        <v>540</v>
+        <v>653</v>
       </c>
       <c r="T90" t="s">
         <v>36</v>
       </c>
       <c r="U90" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B91" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D91" t="s">
         <v>24</v>
@@ -10193,13 +10136,13 @@
         <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G91" t="s">
         <v>42</v>
       </c>
       <c r="H91">
-        <v>5300000</v>
+        <v>6250000</v>
       </c>
       <c r="I91">
         <v>4</v>
@@ -10208,45 +10151,45 @@
         <v>28</v>
       </c>
       <c r="K91" t="s">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>45</v>
+        <v>658</v>
       </c>
       <c r="O91" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="Q91">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R91" t="s">
-        <v>539</v>
+        <v>660</v>
       </c>
       <c r="S91" t="s">
-        <v>540</v>
+        <v>653</v>
       </c>
       <c r="T91" t="s">
         <v>36</v>
       </c>
       <c r="U91" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B92" t="s">
+        <v>663</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="B92" t="s">
-        <v>665</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="D92" t="s">
         <v>24</v>
@@ -10255,43 +10198,43 @@
         <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G92" t="s">
         <v>42</v>
       </c>
       <c r="H92">
-        <v>6800000</v>
+        <v>6500000</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J92" t="s">
         <v>28</v>
       </c>
       <c r="K92" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>64</v>
+        <v>665</v>
       </c>
       <c r="N92" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="O92" t="s">
         <v>667</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q92">
+        <v>9</v>
+      </c>
+      <c r="R92" t="s">
         <v>668</v>
       </c>
-      <c r="P92" t="s">
+      <c r="S92" t="s">
         <v>669</v>
-      </c>
-      <c r="Q92">
-        <v>63</v>
-      </c>
-      <c r="R92" t="s">
-        <v>539</v>
-      </c>
-      <c r="S92" t="s">
-        <v>540</v>
       </c>
       <c r="T92" t="s">
         <v>36</v>
@@ -10305,7 +10248,7 @@
         <v>671</v>
       </c>
       <c r="B93" t="s">
-        <v>330</v>
+        <v>585</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>672</v>
@@ -10323,7 +10266,7 @@
         <v>42</v>
       </c>
       <c r="H93">
-        <v>5600000</v>
+        <v>5500000</v>
       </c>
       <c r="I93">
         <v>4</v>
@@ -10332,45 +10275,45 @@
         <v>28</v>
       </c>
       <c r="K93" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>45</v>
+        <v>673</v>
       </c>
       <c r="O93" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="P93" t="s">
-        <v>674</v>
+        <v>102</v>
       </c>
       <c r="Q93">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="R93" t="s">
         <v>675</v>
       </c>
       <c r="S93" t="s">
-        <v>540</v>
+        <v>676</v>
       </c>
       <c r="T93" t="s">
         <v>36</v>
       </c>
       <c r="U93" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>679</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -10379,60 +10322,60 @@
         <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
         <v>42</v>
       </c>
       <c r="H94">
-        <v>5900000</v>
+        <v>6000000</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J94" t="s">
         <v>28</v>
       </c>
       <c r="K94" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>45</v>
+        <v>681</v>
       </c>
       <c r="O94" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="P94" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="Q94">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="R94" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="S94" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="T94" t="s">
         <v>36</v>
       </c>
       <c r="U94" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B95" t="s">
-        <v>409</v>
+        <v>688</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
@@ -10441,60 +10384,60 @@
         <v>25</v>
       </c>
       <c r="F95" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
         <v>42</v>
       </c>
       <c r="H95">
-        <v>4950000</v>
+        <v>7200000</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J95" t="s">
         <v>28</v>
       </c>
       <c r="K95" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="O95" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="P95" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="Q95">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="R95" t="s">
-        <v>688</v>
+        <v>510</v>
       </c>
       <c r="S95" t="s">
-        <v>689</v>
+        <v>511</v>
       </c>
       <c r="T95" t="s">
         <v>36</v>
       </c>
       <c r="U95" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B96" t="s">
-        <v>337</v>
+        <v>476</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -10506,10 +10449,10 @@
         <v>54</v>
       </c>
       <c r="G96" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H96">
-        <v>6200000</v>
+        <v>5200000</v>
       </c>
       <c r="I96">
         <v>4</v>
@@ -10518,45 +10461,45 @@
         <v>28</v>
       </c>
       <c r="K96" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>339</v>
+        <v>696</v>
       </c>
       <c r="O96" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>698</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="R96" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="S96" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="T96" t="s">
         <v>36</v>
       </c>
       <c r="U96" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="B97" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -10568,10 +10511,10 @@
         <v>54</v>
       </c>
       <c r="G97" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>6250000</v>
+        <v>6000000</v>
       </c>
       <c r="I97">
         <v>4</v>
@@ -10586,39 +10529,39 @@
         <v>64</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="O97" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>707</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="R97" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="S97" t="s">
-        <v>689</v>
+        <v>709</v>
       </c>
       <c r="T97" t="s">
         <v>36</v>
       </c>
       <c r="U97" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="B98" t="s">
-        <v>703</v>
+        <v>393</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
@@ -10627,40 +10570,40 @@
         <v>25</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G98" t="s">
         <v>42</v>
       </c>
       <c r="H98">
-        <v>6500000</v>
+        <v>4950000</v>
       </c>
       <c r="I98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
         <v>28</v>
       </c>
       <c r="K98" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>705</v>
+        <v>55</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="O98" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="P98" t="s">
-        <v>366</v>
+        <v>607</v>
       </c>
       <c r="Q98">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="R98" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="S98" t="s">
         <v>709</v>
@@ -10669,18 +10612,18 @@
         <v>36</v>
       </c>
       <c r="U98" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="B99" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -10695,7 +10638,7 @@
         <v>42</v>
       </c>
       <c r="H99">
-        <v>5500000</v>
+        <v>5600000</v>
       </c>
       <c r="I99">
         <v>4</v>
@@ -10704,45 +10647,45 @@
         <v>28</v>
       </c>
       <c r="K99" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>713</v>
+        <v>45</v>
       </c>
       <c r="O99" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="P99" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="Q99">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="R99" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="S99" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="T99" t="s">
         <v>36</v>
       </c>
       <c r="U99" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B100" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
@@ -10751,60 +10694,60 @@
         <v>25</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G100" t="s">
         <v>42</v>
       </c>
       <c r="H100">
-        <v>6000000</v>
+        <v>6200000</v>
       </c>
       <c r="I100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J100" t="s">
         <v>28</v>
       </c>
       <c r="K100" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="O100" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="P100" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="Q100">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="R100" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="S100" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T100" t="s">
         <v>36</v>
       </c>
       <c r="U100" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B101" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -10813,13 +10756,13 @@
         <v>25</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G101" t="s">
         <v>42</v>
       </c>
       <c r="H101">
-        <v>7200000</v>
+        <v>6600000</v>
       </c>
       <c r="I101">
         <v>5</v>
@@ -10834,39 +10777,39 @@
         <v>75</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="O101" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="P101" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="Q101">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="R101" t="s">
-        <v>539</v>
+        <v>738</v>
       </c>
       <c r="S101" t="s">
-        <v>540</v>
+        <v>739</v>
       </c>
       <c r="T101" t="s">
         <v>36</v>
       </c>
       <c r="U101" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="B102" t="s">
-        <v>505</v>
+        <v>742</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -10875,421 +10818,364 @@
         <v>25</v>
       </c>
       <c r="F102" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
         <v>42</v>
       </c>
       <c r="H102">
-        <v>5200000</v>
+        <v>6100000</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J102" t="s">
         <v>28</v>
       </c>
       <c r="K102" t="s">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="O102" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="P102" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="Q102">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="R102" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="S102" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="T102" t="s">
         <v>36</v>
       </c>
       <c r="U102" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B103" t="s">
-        <v>743</v>
+      <c r="A103" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>751</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="D103" t="s">
+        <v>752</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H103">
-        <v>6000000</v>
-      </c>
-      <c r="I103">
-        <v>4</v>
-      </c>
-      <c r="J103" t="s">
+      <c r="H103" s="7">
+        <v>6500000</v>
+      </c>
+      <c r="I103" s="7">
+        <v>5</v>
+      </c>
+      <c r="J103" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K103" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L103" s="7"/>
+      <c r="M103" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="P103" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q103" s="7">
         <v>29</v>
       </c>
-      <c r="M103" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N103" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="O103" t="s">
-        <v>746</v>
-      </c>
-      <c r="P103" t="s">
-        <v>747</v>
-      </c>
-      <c r="Q103">
-        <v>55</v>
-      </c>
-      <c r="R103" t="s">
-        <v>748</v>
-      </c>
-      <c r="S103" t="s">
-        <v>749</v>
-      </c>
-      <c r="T103" t="s">
+      <c r="R103" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="S103" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="T103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U103" t="s">
-        <v>750</v>
+      <c r="U103" s="7" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B104" t="s">
-        <v>409</v>
+      <c r="A104" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="D104" t="s">
+        <v>760</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F104" t="s">
-        <v>54</v>
-      </c>
-      <c r="G104" t="s">
-        <v>42</v>
-      </c>
-      <c r="H104">
-        <v>4950000</v>
-      </c>
-      <c r="I104">
-        <v>3</v>
-      </c>
-      <c r="J104" t="s">
+      <c r="F104" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" s="7">
+        <v>5900000</v>
+      </c>
+      <c r="I104" s="7">
+        <v>5</v>
+      </c>
+      <c r="J104" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K104" t="s">
-        <v>43</v>
-      </c>
+      <c r="K104" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L104" s="7"/>
       <c r="M104" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="O104" t="s">
-        <v>754</v>
-      </c>
-      <c r="P104" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q104">
-        <v>49</v>
-      </c>
-      <c r="R104" t="s">
-        <v>755</v>
-      </c>
-      <c r="S104" t="s">
-        <v>749</v>
-      </c>
-      <c r="T104" t="s">
+        <v>761</v>
+      </c>
+      <c r="O104" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="P104" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q104" s="7">
+        <v>1</v>
+      </c>
+      <c r="R104" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="S104" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="T104" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U104" t="s">
-        <v>756</v>
+      <c r="U104" s="7" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B105" t="s">
-        <v>613</v>
+      <c r="A105" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>768</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="D105" t="s">
+        <v>769</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F105" t="s">
-        <v>54</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="F105" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H105">
-        <v>5600000</v>
-      </c>
-      <c r="I105">
+      <c r="H105" s="7">
+        <v>5200000</v>
+      </c>
+      <c r="I105" s="7">
         <v>4</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K105" t="s">
-        <v>242</v>
-      </c>
+      <c r="K105" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L105" s="7"/>
       <c r="M105" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="N105" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O105" t="s">
-        <v>759</v>
-      </c>
-      <c r="P105" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q105">
-        <v>71</v>
-      </c>
-      <c r="R105" t="s">
-        <v>760</v>
-      </c>
-      <c r="S105" t="s">
-        <v>761</v>
-      </c>
-      <c r="T105" t="s">
+      <c r="O105" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="P105" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q105" s="7">
+        <v>1</v>
+      </c>
+      <c r="R105" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="S105" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="T105" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U105" t="s">
-        <v>762</v>
+      <c r="U105" s="7" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" s="7">
+        <v>4900000</v>
+      </c>
+      <c r="I106" s="7">
+        <v>3</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L106" s="7"/>
+      <c r="M106" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="O106" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="P106" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="B106" t="s">
-        <v>764</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="D106" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" t="s">
-        <v>42</v>
-      </c>
-      <c r="H106">
-        <v>6200000</v>
-      </c>
-      <c r="I106">
-        <v>4</v>
-      </c>
-      <c r="J106" t="s">
-        <v>28</v>
-      </c>
-      <c r="K106" t="s">
-        <v>29</v>
-      </c>
-      <c r="M106" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N106" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="O106" t="s">
-        <v>767</v>
-      </c>
-      <c r="P106" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q106">
-        <v>122</v>
-      </c>
-      <c r="R106" t="s">
-        <v>769</v>
-      </c>
-      <c r="S106" t="s">
-        <v>770</v>
-      </c>
-      <c r="T106" t="s">
+      <c r="Q106" s="7">
+        <v>1</v>
+      </c>
+      <c r="R106" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="S106" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="T106" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U106" t="s">
-        <v>771</v>
+      <c r="U106" s="7" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B107" t="s">
-        <v>773</v>
+      <c r="A107" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>780</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="D107" t="s">
+        <v>781</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F107" t="s">
-        <v>54</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="F107" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H107">
-        <v>6600000</v>
-      </c>
-      <c r="I107">
-        <v>5</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="H107" s="7">
+        <v>5499999</v>
+      </c>
+      <c r="I107" s="7">
+        <v>3</v>
+      </c>
+      <c r="J107" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K107" t="s">
-        <v>74</v>
-      </c>
+      <c r="K107" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L107" s="7"/>
       <c r="M107" s="3" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="O107" t="s">
-        <v>776</v>
-      </c>
-      <c r="P107" t="s">
-        <v>777</v>
-      </c>
-      <c r="Q107">
-        <v>120</v>
-      </c>
-      <c r="R107" t="s">
-        <v>778</v>
-      </c>
-      <c r="S107" t="s">
-        <v>779</v>
-      </c>
-      <c r="T107" t="s">
+        <v>45</v>
+      </c>
+      <c r="O107" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="P107" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q107" s="7">
+        <v>1</v>
+      </c>
+      <c r="R107" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="S107" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="T107" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U107" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B108" t="s">
-        <v>782</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="D108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" t="s">
-        <v>41</v>
-      </c>
-      <c r="G108" t="s">
-        <v>42</v>
-      </c>
-      <c r="H108">
-        <v>6100000</v>
-      </c>
-      <c r="I108">
-        <v>5</v>
-      </c>
-      <c r="J108" t="s">
-        <v>28</v>
-      </c>
-      <c r="K108" t="s">
-        <v>74</v>
-      </c>
-      <c r="M108" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N108" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="O108" t="s">
+      <c r="U107" s="7" t="s">
         <v>785</v>
-      </c>
-      <c r="P108" t="s">
-        <v>786</v>
-      </c>
-      <c r="Q108">
-        <v>217</v>
-      </c>
-      <c r="R108" t="s">
-        <v>787</v>
-      </c>
-      <c r="S108" t="s">
-        <v>788</v>
-      </c>
-      <c r="T108" t="s">
-        <v>36</v>
-      </c>
-      <c r="U108" t="s">
-        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -11400,7 +11286,6 @@
     <hyperlink ref="C105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="C106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
     <hyperlink ref="C107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
